--- a/resources/objects/stimuli/practice.xlsx
+++ b/resources/objects/stimuli/practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\picture-naming\resources\objects\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-naming\resources\objects\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6453D77F-EFC5-4603-9E68-5E6F3E886542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD87A93-5FF6-4874-A03A-926C0311B38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
+    <workbookView xWindow="1128" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD95"/>
+      <selection activeCell="B2" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
